--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3527923447050592</v>
+        <v>0.6146860612472083</v>
       </c>
       <c r="C11" t="n">
-        <v>1.063620460189247</v>
+        <v>1.887139156492517</v>
       </c>
       <c r="D11" t="n">
-        <v>1.658834894267464</v>
+        <v>2.389614539008293</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1549941544302119</v>
+        <v>0.9207838918646442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4908431004854589</v>
+        <v>2.892138463219786</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6810774380504167</v>
+        <v>3.555167520378689</v>
       </c>
     </row>
     <row r="13">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6146860612472083</v>
+        <v>0.6413328690488962</v>
       </c>
       <c r="C11" t="n">
-        <v>1.887139156492517</v>
+        <v>1.942350320593982</v>
       </c>
       <c r="D11" t="n">
-        <v>2.389614539008293</v>
+        <v>2.504900058952082</v>
       </c>
     </row>
     <row r="12">
